--- a/fw_rules.xlsx
+++ b/fw_rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\supro\dev\netQoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fw-rule-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC52B7F8-3B65-44AF-8140-B31E2909419E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7AC3E-607E-4252-B907-73C068A4D074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QoS Flows" sheetId="2" r:id="rId1"/>
@@ -3476,39 +3476,39 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="83.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="9" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="17" style="9" customWidth="1"/>
     <col min="13" max="13" width="9" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10" style="9" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="9" customWidth="1"/>
-    <col min="21" max="22" width="7.7109375" style="9" customWidth="1"/>
-    <col min="23" max="23" width="62.28515625" style="6" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="9"/>
+    <col min="14" max="14" width="8.7265625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="9" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" style="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="9" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="9" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="7.7265625" style="9" customWidth="1"/>
+    <col min="23" max="23" width="62.26953125" style="6" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>15</v>
@@ -3647,7 +3647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>104</v>
       </c>
@@ -3712,10 +3712,10 @@
         <v>15</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>224</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>191</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>192</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>193</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>214</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>216</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>228</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>38</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>15</v>
@@ -4321,13 +4321,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>92</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>244</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>38</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>15</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="W16" s="9"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="W17" s="9"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>200</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>205</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>206</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>210</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>211</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>212</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>147</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>148</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>149</v>
       </c>
@@ -5275,13 +5275,13 @@
         <v>10</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>159</v>
       </c>
@@ -5343,13 +5343,13 @@
         <v>10</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>160</v>
       </c>
@@ -5411,13 +5411,13 @@
         <v>10</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>114</v>
       </c>
@@ -5482,10 +5482,10 @@
         <v>15</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>115</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>38</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>15</v>
@@ -5550,10 +5550,10 @@
         <v>15</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>116</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>117</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>118</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>119</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>88</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>89</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>90</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>86</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>87</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>165</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>169</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>170</v>
       </c>
@@ -7262,34 +7262,34 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" customWidth="1"/>
     <col min="10" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.26953125" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" style="16" customWidth="1"/>
     <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="25.54296875" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" customWidth="1"/>
+    <col min="20" max="20" width="3.26953125" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="2.42578125" customWidth="1"/>
-    <col min="26" max="26" width="2.28515625" customWidth="1"/>
+    <col min="23" max="23" width="2.453125" customWidth="1"/>
+    <col min="26" max="26" width="2.26953125" customWidth="1"/>
     <col min="28" max="28" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>96</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>93</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>95</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>97</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>105</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>106</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>107</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>108</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>110</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>111</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>112</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>113</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>120</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>122</v>
       </c>
@@ -7722,192 +7722,192 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>213</v>
       </c>
@@ -7939,19 +7939,19 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7983,12 +7983,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>4</v>
       </c>
@@ -8020,17 +8020,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8046,52 +8046,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A32" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>187</v>
       </c>
